--- a/static/lab-demo/data/lab1-charts.xlsx
+++ b/static/lab-demo/data/lab1-charts.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\books\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\lab-econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E74B790-0BA9-45BD-874B-46C1D3C854A7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1892C6F6-AE3E-4120-9AFB-D3B4E6B3AD82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7395" activeTab="1" xr2:uid="{3998A5B6-CF86-401F-9F26-DB4736DF1124}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{3998A5B6-CF86-401F-9F26-DB4736DF1124}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="2" r:id="rId1"/>
     <sheet name="eviews" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -557,10 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scatter-2var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>scatter-matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,6 +684,10 @@
   </si>
   <si>
     <t>表现数据循环关系，包含1个序列对象，数据点较多，分组较少（在同一年份不同月份上的变化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scatter-2vars</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1540,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F01189B-1E4B-408B-B6CA-4AAF483C6707}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1574,7 +1580,7 @@
         <v>125</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1599,7 +1605,7 @@
         <v>![](picture/lab1-introduction/eviews-format/line.png)</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1624,7 +1630,7 @@
         <v>![](picture/lab1-introduction/eviews-format/line-4var.png)</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1649,7 +1655,7 @@
         <v>![](picture/lab1-introduction/eviews-format/bar.png)</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1674,7 +1680,7 @@
         <v>![](picture/lab1-introduction/eviews-format/bar-column.png)</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1699,7 +1705,7 @@
         <v>![](picture/lab1-introduction/eviews-format/bar-column-stack.png)</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1724,7 +1730,7 @@
         <v>![](picture/lab1-introduction/eviews-format/spike.png)</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1749,7 +1755,7 @@
         <v>![](picture/lab1-introduction/eviews-format/area.png)</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1774,7 +1780,7 @@
         <v>![](picture/lab1-introduction/eviews-format/area-4var.png)</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1799,7 +1805,7 @@
         <v>![](picture/lab1-introduction/eviews-format/area-band.png)</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1824,7 +1830,7 @@
         <v>![](picture/lab1-introduction/eviews-format/mixed.png)</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1849,7 +1855,7 @@
         <v>![](picture/lab1-introduction/eviews-format/dot.png)</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1874,7 +1880,7 @@
         <v>![](picture/lab1-introduction/eviews-format/error-2var.png)</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1899,7 +1905,7 @@
         <v>![](picture/lab1-introduction/eviews-format/error-3var.png)</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1924,7 +1930,7 @@
         <v>![](picture/lab1-introduction/eviews-format/hilo-2var.png)</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1949,7 +1955,7 @@
         <v>![](picture/lab1-introduction/eviews-format/hilo-3var.png)</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1967,14 +1973,14 @@
         <v>散点图(Scatter)</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>![](picture/lab1-introduction/eviews-format/scatter-2var.png)</v>
+        <f>"![](picture/lab1-introduction/eviews-format/"&amp;E17&amp;".png)"</f>
+        <v>![](picture/lab1-introduction/eviews-format/scatter-2vars.png)</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1992,14 +1998,14 @@
         <v>散点图(Scatter)</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>![](picture/lab1-introduction/eviews-format/scatter-matrix.png)</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2024,7 +2030,7 @@
         <v>![](picture/lab1-introduction/eviews-format/bubble.png)</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2049,7 +2055,7 @@
         <v>![](picture/lab1-introduction/eviews-format/xy-line.png)</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2074,7 +2080,7 @@
         <v>![](picture/lab1-introduction/eviews-format/xy-area.png)</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2099,7 +2105,7 @@
         <v>![](picture/lab1-introduction/eviews-format/xy-bar.png)</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2124,7 +2130,7 @@
         <v>![](picture/lab1-introduction/eviews-format/pie.png)</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2142,14 +2148,14 @@
         <v>密度图(Distribution)</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>![](picture/lab1-introduction/eviews-format/histogram.png)</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2174,7 +2180,7 @@
         <v>![](picture/lab1-introduction/eviews-format/qq.png)</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2199,7 +2205,7 @@
         <v>![](picture/lab1-introduction/eviews-format/boxplot.png)</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2224,7 +2230,7 @@
         <v>![](picture/lab1-introduction/eviews-format/seasonal.png)</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2242,14 +2248,14 @@
         <v>季节图(Seasonal Graph)</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>![](picture/lab1-introduction/eviews-format/seasonal1.png)</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
